--- a/medicine/Soins infirmiers et profession infirmière/Recueil_de_données_infirmier/Recueil_de_données_infirmier.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Recueil_de_données_infirmier/Recueil_de_données_infirmier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recueil_de_donn%C3%A9es_infirmier</t>
+          <t>Recueil_de_données_infirmier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le recueil de données infirmier est une des composantes de l'évaluation infirmière. Il désigne un outil d'évaluation qui intervient dans la démarche de soins. Il permet à l'infirmier d'identifier le ou les problèmes de santé, réels ou potentiels à l'accueil d'une personne ou lors de la réévaluation du plan de soins infirmier. Ainsi, il repère les réactions humaines par rapport au problème de santé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recueil_de_donn%C3%A9es_infirmier</t>
+          <t>Recueil_de_données_infirmier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe et finalité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors du recueil de données, l'infirmier évalue l'état de santé de la personne demandeuse de soins et son degré d'autonomie. L'outil permet de déterminer avec la personne malade les objectifs de santé que celle-ci désire atteindre. Les informations sont consignées dans le dossier de soins. Ces informations intégrées aux plan de soins infirmier, vont contribuer à argumenter le projet de soins infirmier.
 Ainsi, l'infirmier et la personne détermineront ensemble le ou les diagnostic(s) infirmier(s) décrivant le problème de santé et le ressenti du malade par rapport à celui-ci. Il convient ensuite de répondre aux éventuelles questions posées.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recueil_de_donn%C3%A9es_infirmier</t>
+          <t>Recueil_de_données_infirmier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Informations consignées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs informations se retrouvent dans le recueil de données qui est un outil indispensable dans la prise en charge de la personne.
 Les informations administratives concernant l'entrant
